--- a/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
+++ b/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Semicon Internship\Sample\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Semicon Internship\Semicon Basic Course Practice\8 - 8_BIT TIMER COUNTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61E5A2-5752-4E94-99D8-2A75474BB001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1E631-F4A9-4F9F-988F-62995CB553AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>TIMER TEST PLAN</t>
   </si>
@@ -182,13 +182,6 @@
   </si>
   <si>
     <t>Count down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Read a random number less than 255.
--Thread 1: Counts down with an internal clock of pclk × 2, starting from the number above. If the Thread 1 count-down goes below 0, it checks if the underflow status is triggered. If so, it displays a "pass" message (normal operation); otherwise, it displays a "faulty" message.
--Thread 2 runs counting-down in parallel with Thread 1, but Thread 2's job duration is shorter than Thread 1's (about 2/3 of Thread 1's duration).
--Thread 2 eventually stops its counting job (while Thread 1 is still running) and checks if an underflow occurred. If underflow occurs, it displays a "faulty" message; otherwise, it displays a "pass" (normal operation).
-</t>
   </si>
   <si>
     <t>-Write a random value to TDR (address = 0).
@@ -397,6 +390,16 @@
   </si>
   <si>
     <t>Oct 9th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Read a random number less than 255.
+-Thread 1: Counts down with an internal clock of pclk × 2, starting from the number above. If the Thread 1 count-down goes below 0, it checks if the underflow status is triggered. If so, it displays a "faulty" message; otherwise, it displays a "pass" message (normal operation).
+-Thread 2 runs counting-down in parallel with Thread 1, but Thread 2's job duration is shorter than Thread 1's (about 2/3 of Thread 1's duration).
+-Thread 2 eventually stops its counting job (while Thread 1 is still running) and checks if an underflow occurred. If underflow occurs, it displays a "faulty" message; otherwise, it displays a "pass" (normal operation).
+</t>
+  </si>
+  <si>
+    <t>Oct 10th</t>
   </si>
 </sst>
 </file>
@@ -955,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1113,10 +1116,10 @@
         <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>17</v>
@@ -1148,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>21</v>
@@ -1183,10 +1186,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
@@ -1212,16 +1215,16 @@
         <v>27</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>28</v>
@@ -1247,16 +1250,16 @@
         <v>30</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -1311,19 +1314,19 @@
         <v>33</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="51">
@@ -1346,10 +1349,10 @@
         <v>17</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="51">
@@ -1372,10 +1375,10 @@
         <v>17</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="51">
@@ -1398,10 +1401,10 @@
         <v>17</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="255">
@@ -1415,82 +1418,98 @@
         <v>44</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="7"/>
+      <c r="G20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="2:10" ht="51">
       <c r="B21" s="5">
         <v>11</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="51">
       <c r="B22" s="5">
         <v>12</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="7"/>
+      <c r="G22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="2:10" ht="51">
       <c r="B23" s="5">
         <v>13</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="8"/>
+      <c r="G23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" ht="289.89999999999998" customHeight="1">
@@ -1498,16 +1517,16 @@
         <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="F24" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>28</v>
@@ -1520,16 +1539,16 @@
         <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="F25" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>28</v>
@@ -1542,16 +1561,16 @@
         <v>16</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="F26" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>28</v>
@@ -1564,16 +1583,16 @@
         <v>17</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>28</v>
@@ -1586,16 +1605,16 @@
         <v>18</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>28</v>
@@ -1608,16 +1627,16 @@
         <v>19</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>28</v>
@@ -1630,16 +1649,16 @@
         <v>20</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="F30" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>28</v>
@@ -1652,16 +1671,16 @@
         <v>21</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="22" t="s">
+      <c r="F31" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>28</v>
@@ -1856,18 +1875,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1889,18 +1908,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145DDC68-D49D-4E57-91D8-28ACD87E078E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
+++ b/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Semicon Internship\Semicon Basic Course Practice\8 - 8_BIT TIMER COUNTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B34EA-346C-4B3B-ABA1-BE604DA7E6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C61DAC-3A3A-4CEE-AC06-3E1CE27E0E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>TIMER TEST PLAN</t>
   </si>
@@ -306,12 +306,6 @@
     <t>fake_overflow.v</t>
   </si>
   <si>
-    <t xml:space="preserve">-Timer is disabled, set Timer with pclk2, couting-up.
--Load 255 into TCNT.
--Load 255 into TCNT.
--Check if Overflow (TSR[0]) is triggered or not. And display appropriate message  </t>
-  </si>
-  <si>
     <t>-Write 8'hFF to TDR. Load data from TDR into TCNT
 -make Timer disabled; off load function; setting internal_clock equivalent to pclk2; set count-up.
 -Write 8h'00  to TDR. Load data from TDR into TCNT
@@ -409,6 +403,15 @@
   </si>
   <si>
     <t>Oct 13th</t>
+  </si>
+  <si>
+    <t>Oct 14th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Timer is disabled, set Timer with pclk2, couting-up.
+-Load 255 into TCNT.
+-Load 0 into TCNT.
+-Check if Overflow (TSR[0]) is triggered or not. And display appropriate message  </t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -591,15 +594,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -666,9 +660,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -683,6 +674,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:I28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -986,46 +980,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="2:17" ht="36.6" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:17" ht="15.75">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1069,14 +1063,14 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
@@ -1124,11 +1118,11 @@
       <c r="G9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>82</v>
+      <c r="H9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>17</v>
@@ -1159,11 +1153,11 @@
       <c r="G10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>82</v>
+      <c r="H10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>21</v>
@@ -1194,11 +1188,11 @@
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>82</v>
+      <c r="H11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
@@ -1223,17 +1217,17 @@
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>76</v>
+      <c r="F12" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>82</v>
+      <c r="H12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>28</v>
@@ -1258,17 +1252,17 @@
       <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>76</v>
+      <c r="F13" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>82</v>
+      <c r="H13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -1279,14 +1273,14 @@
       <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="2:17" ht="15.75">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
@@ -1322,20 +1316,20 @@
       <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>77</v>
       </c>
+      <c r="F16" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="G16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="51">
@@ -1357,11 +1351,11 @@
       <c r="G17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>84</v>
+      <c r="H17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="51">
@@ -1384,10 +1378,10 @@
         <v>17</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="51">
@@ -1410,10 +1404,10 @@
         <v>17</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="255">
@@ -1426,20 +1420,20 @@
       <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="I20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="51">
@@ -1462,10 +1456,10 @@
         <v>17</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="51">
@@ -1488,10 +1482,10 @@
         <v>17</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="51">
@@ -1514,12 +1508,12 @@
         <v>17</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="21"/>
+        <v>86</v>
+      </c>
+      <c r="J23"/>
     </row>
     <row r="24" spans="2:10" ht="289.89999999999998" customHeight="1">
       <c r="B24" s="5">
@@ -1531,20 +1525,20 @@
       <c r="D24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="I24" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="267.75">
@@ -1557,20 +1551,20 @@
       <c r="D25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="G25" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="293.25">
@@ -1583,20 +1577,20 @@
       <c r="D26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="280.5">
@@ -1609,20 +1603,20 @@
       <c r="D27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>64</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="63.75">
@@ -1645,10 +1639,10 @@
         <v>17</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="63.75">
@@ -1656,25 +1650,25 @@
         <v>19</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="G29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="102">
@@ -1687,17 +1681,21 @@
       <c r="D30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="7"/>
+      <c r="G30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="2:10" ht="89.25">
       <c r="B31" s="5">
@@ -1709,17 +1707,21 @@
       <c r="D31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="7"/>
+      <c r="G31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="14"/>
@@ -1908,18 +1910,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1941,18 +1943,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145DDC68-D49D-4E57-91D8-28ACD87E078E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>